--- a/src/main/resources/caseconf/CashAccountQueryByItem/Case_CashAccountQueryByItem.xlsx
+++ b/src/main/resources/caseconf/CashAccountQueryByItem/Case_CashAccountQueryByItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform0514/src/main/resources/caseconf/CashAccountQueryByItem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Data_Center_Platform/src/main/resources/caseconf/CashAccountQueryByItem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2060" yWindow="-25600" windowWidth="39940" windowHeight="22580"/>
+    <workbookView xWindow="-6320" yWindow="-25920" windowWidth="39940" windowHeight="22580"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountQueryByItem" sheetId="2" r:id="rId1"/>
@@ -1884,6 +1884,17 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">delete from cash_account_item where key_name="AffiliatedBank" and tenant_id = "1001";
+delete from cash_account where  tenant_id = "1001" and create_time="2020-05-15 16:09:09" </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from cash_account where account_id="1000001" and tenant_id = "1001" ;
+delete from cash_account_item where account_id="1000001" and tenant_id = "1001"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">insert into cash_account_item (account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time)  
 values ("1000001","1001","2000000000000001","AffiliatedBank","I***","pjdIkpBaoow=","4688ad42ff66a5277f1c14fe15b572c0","1","2020-05-15 16:12:41","2020-05-15 16:12:41");
 insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) 
@@ -1900,20 +1911,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">delete from cash_account_item where key_name="AffiliatedBank" and tenant_id = "1001";
-delete from cash_account where  tenant_id = "1001" and create_time="2020-05-15 16:09:09" </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">insert into cash_account_item (account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time)  values ("1000001","1001","myfirstcard","AffiliatedBank","I***","pjdIkpBaoow=","4688ad42ff66a5277f1c14fe15b572c0","1","2020-05-15 16:12:41","2020-05-15 16:12:41");
-insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("1000001","400000","900001","1001","myfirstcard","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViRlBnR0pZV21oQ05UYnNhYlRTK21UdVZsdlp2TjE2TFZBQUFBQUFBQUFBQTE4cXg4TnpyVURpbjA0Z3JUdEVOdzdQZmtTdjkxMVF3aGZ0Mm9jWjlYVGViUjY2QUx6ZDduTFNRUFJZSFFzbVllUm5id0ZFcC9kbmdkZVVpZDRzdktoY09XYnJHZ3dGT29YWFYvbGhld3J0NTJBWFVBM0VxVDBPalJyLzZjalpxZ1BDQzNkNFJ5QytEQ0NzUDAxQkhKbGlxTGhjdDg1ZUJPSjg0cElzWTJZVDdlbDlGdHI1cDJsck0xQ09MSGp6K2RaQnFxQ2VZbWZUVHk2eVN3NFZDS0lEMkZnQ2V1b0RSMjdtM3NkYndmU3RWMFhpanFaNUxaNldhMWFCcjBRNmx4Q1Y3eU90c2xtc2R6YTBhcHhRU0NtRitlUHBJcDJOdjJFbDJFcUNvWUFVMTk2STA5dmRLcDg0T3ZnWTJlRzZQTno1WUhUb01yRFNNL2lxdnBJZ2lsdERjZUxwalFjMEN4WVhwVmtqMFFuRmw2VlZudjBXMTcxZUdOM1pVUU1KR0x3RzRNRW5Rc1BzT3pBeWxOSEVYOWU4T2tDdVdGSVJSQ3RIWjlraVphajVJL1drSW1rSklEb3BIMUNvY0Y5QTRTQ2Y4eW1LajIwZDRPR2s4NE5jcmdUTXB1ODRkeTZZUT0=","success","2020-05-15 16:09:09","2020-05-15 16:09:09")
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("1000001","400000","900001","1001","2000000000000001","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViRlBnR0pZV21oQ05UYnNhYlRTK21UdVZsdlp2TjE2TFZBQUFBQUFBQUFBQTE4cXg4TnpyVURpbjA0Z3JUdEVOdzdQZmtTdjkxMVF3aGZ0Mm9jWjlYVGViUjY2QUx6ZDduTFNRUFJZSFFzbVllUm5id0ZFcC9kbmdkZVVpZDRzdktoY09XYnJHZ3dGT29YWFYvbGhld3J0NTJBWFVBM0VxVDBPalJyLzZjalpxZ1BDQzNkNFJ5QytEQ0NzUDAxQkhKbGlxTGhjdDg1ZUJPSjg0cElzWTJZVDdlbDlGdHI1cDJsck0xQ09MSGp6K2RaQnFxQ2VZbWZUVHk2eVN3NFZDS0lEMkZnQ2V1b0RSMjdtM3NkYndmU3RWMFhpanFaNUxaNldhMWFCcjBRNmx4Q1Y3eU90c2xtc2R6YTBhcHhRU0NtRitlUHBJcDJOdjJFbDJFcUNvWUFVMTk2STA5dmRLcDg0T3ZnWTJlRzZQTno1WUhUb01yRFNNL2lxdnBJZ2lsdERjZUxwalFjMEN4WVhwVmtqMFFuRmw2VlZudjBXMTcxZUdOM1pVUU1KR0x3RzRNRW5Rc1BzT3pBeWxOSEVYOWU4T2tDdVdGSVJSQ3RIWjlraVphajVJL1drSW1rSklEb3BIMUNvY0Y5QTRTQ2Y4eW1LajIwZDRPR2s4NE5jcmdUTXB1ODRkeTZZUT0=","success","2020-05-15 16:09:09","2020-05-15 16:09:09")
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-delete from cash_account where account_id="1000001" and tenant_id = "1001" ;
-delete from cash_account_item where account_id="1000001" and tenant_id = "1001"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2600,9 +2600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2688,7 +2688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="390" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="405" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>109</v>
@@ -2737,10 +2737,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>166</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>167</v>
       </c>
       <c r="H3" s="65" t="s">
         <v>109</v>
@@ -2776,7 +2776,7 @@
         <v>132</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>109</v>
@@ -2810,7 +2810,7 @@
         <v>133</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>109</v>
@@ -2844,7 +2844,7 @@
         <v>126</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="65" t="s">
         <v>109</v>
@@ -2876,7 +2876,7 @@
         <v>126</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="65" t="s">
         <v>109</v>

--- a/src/main/resources/caseconf/CashAccountQueryByItem/Case_CashAccountQueryByItem.xlsx
+++ b/src/main/resources/caseconf/CashAccountQueryByItem/Case_CashAccountQueryByItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Data_Center_Platform/src/main/resources/caseconf/CashAccountQueryByItem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform-master-520/src/main/resources/caseconf/CashAccountQueryByItem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="174">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1895,6 +1895,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>https://user-center-thu.tunaikita.id/cashAccount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryByItem</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "value":"ICBC",
+ "key":"AffiliatedBank"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">insert into cash_account_item (account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time)  
 values ("1000001","1001","2000000000000001","AffiliatedBank","I***","pjdIkpBaoow=","4688ad42ff66a5277f1c14fe15b572c0","1","2020-05-15 16:12:41","2020-05-15 16:12:41");
 insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) 
@@ -1911,9 +1927,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">insert into cash_account_item (account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time)  values ("1000001","1001","myfirstcard","AffiliatedBank","I***","pjdIkpBaoow=","4688ad42ff66a5277f1c14fe15b572c0","1","2020-05-15 16:12:41","2020-05-15 16:12:41");
-insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("1000001","400000","900001","1001","2000000000000001","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViRlBnR0pZV21oQ05UYnNhYlRTK21UdVZsdlp2TjE2TFZBQUFBQUFBQUFBQTE4cXg4TnpyVURpbjA0Z3JUdEVOdzdQZmtTdjkxMVF3aGZ0Mm9jWjlYVGViUjY2QUx6ZDduTFNRUFJZSFFzbVllUm5id0ZFcC9kbmdkZVVpZDRzdktoY09XYnJHZ3dGT29YWFYvbGhld3J0NTJBWFVBM0VxVDBPalJyLzZjalpxZ1BDQzNkNFJ5QytEQ0NzUDAxQkhKbGlxTGhjdDg1ZUJPSjg0cElzWTJZVDdlbDlGdHI1cDJsck0xQ09MSGp6K2RaQnFxQ2VZbWZUVHk2eVN3NFZDS0lEMkZnQ2V1b0RSMjdtM3NkYndmU3RWMFhpanFaNUxaNldhMWFCcjBRNmx4Q1Y3eU90c2xtc2R6YTBhcHhRU0NtRitlUHBJcDJOdjJFbDJFcUNvWUFVMTk2STA5dmRLcDg0T3ZnWTJlRzZQTno1WUhUb01yRFNNL2lxdnBJZ2lsdERjZUxwalFjMEN4WVhwVmtqMFFuRmw2VlZudjBXMTcxZUdOM1pVUU1KR0x3RzRNRW5Rc1BzT3pBeWxOSEVYOWU4T2tDdVdGSVJSQ3RIWjlraVphajVJL1drSW1rSklEb3BIMUNvY0Y5QTRTQ2Y4eW1LajIwZDRPR2s4NE5jcmdUTXB1ODRkeTZZUT0=","success","2020-05-15 16:09:09","2020-05-15 16:09:09")
-</t>
+    <t>1级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into cash_account_item (account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time)  
+values ("1000001","1001","2000000000000001","AffiliatedBank","I***","pjdIkpBaoow=","4688ad42ff66a5277f1c14fe15b572c0","1","2020-05-15 16:12:41","2020-05-15 16:12:41");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) 
+values ("1000001","400001","900001","1001","2000000000000001","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViRlBnR0pZV21oQ05UYnNhYlRTK21UdVZsdlp2TjE2TFZBQUFBQUFBQUFBQTE4cXg4TnpyVURpbjA0Z3JUdEVOdzdQZmtTdjkxMVF3aGZ0Mm9jWjlYVGViUjY2QUx6ZDduTFNRUFJZSFFzbVllUm5id0ZFcC9kbmdkZVVpZDRzdktoY09XYnJHZ3dGT29YWFYvbGhld3J0NTJBWFVBM0VxVDBPalJyLzZjalpxZ1BDQzNkNFJ5QytEQ0NzUDAxQkhKbGlxTGhjdDg1ZUJPSjg0cElzWTJZVDdlbDlGdHI1cDJsck0xQ09MSGp6K2RaQnFxQ2VZbWZUVHk2eVN3NFZDS0lEMkZnQ2V1b0RSMjdtM3NkYndmU3RWMFhpanFaNUxaNldhMWFCcjBRNmx4Q1Y3eU90c2xtc2R6YTBhcHhRU0NtRitlUHBJcDJOdjJFbDJFcUNvWUFVMTk2STA5dmRLcDg0T3ZnWTJlRzZQTno1WUhUb01yRFNNL2lxdnBJZ2lsdERjZUxwalFjMEN4WVhwVmtqMFFuRmw2VlZudjBXMTcxZUdOM1pVUU1KR0x3RzRNRW5Rc1BzT3pBeWxOSEVYOWU4T2tDdVdGSVJSQ3RIWjlraVphajVJL1drSW1rSklEb3BIMUNvY0Y5QTRTQ2Y4eW1LajIwZDRPR2s4NE5jcmdUTXB1ODRkeTZZUT0=","success","2020-05-15 16:09:09","2020-05-15 16:09:09")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2600,9 +2621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2688,9 +2709,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="405" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>145</v>
@@ -2701,20 +2722,20 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="55" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G2" s="47" t="s">
         <v>167</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="53" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="M2" s="53" t="s">
         <v>128</v>
@@ -2726,7 +2747,7 @@
     </row>
     <row r="3" spans="1:19" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>146</v>
@@ -2737,7 +2758,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>166</v>
